--- a/nodes_source_analyses/energy/energy_power_engine_network_gas.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_power_engine_network_gas.central_producer.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/energy/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762"/>
+    <workbookView xWindow="1660" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -30,8 +35,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -298,9 +306,6 @@
   </si>
   <si>
     <t>Output to csv</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>Cost</t>
@@ -483,6 +488,10 @@
   <si>
     <t>energy_power_engine_network_gas.central_producer.ad</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -494,7 +503,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -670,11 +679,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
@@ -1326,7 +1330,7 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1337,24 +1341,24 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="28" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1444,7 +1448,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1462,7 +1466,7 @@
     <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="16" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1510,31 +1514,31 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1795,81 +1799,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes to the ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2306,54 +2245,54 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="26" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="44.125" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="18"/>
+    <col min="1" max="1" width="3.42578125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="24" customFormat="1">
+    <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22"/>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="25"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>70</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>20</v>
@@ -2362,29 +2301,29 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="96" t="s">
         <v>71</v>
       </c>
       <c r="C9" s="97"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="98"/>
       <c r="C10" s="99"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="98" t="s">
         <v>72</v>
@@ -2393,33 +2332,33 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="98"/>
       <c r="C12" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="98"/>
       <c r="C13" s="101" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="98"/>
       <c r="C14" s="99" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="98"/>
       <c r="C15" s="99"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="98" t="s">
         <v>77</v>
@@ -2428,49 +2367,49 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="98"/>
       <c r="C17" s="103" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="98"/>
       <c r="C18" s="104" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="98"/>
       <c r="C19" s="105" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="106"/>
       <c r="C20" s="107" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="106"/>
       <c r="C21" s="108" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="106"/>
       <c r="C22" s="109" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="106"/>
       <c r="C23" s="110" t="s">
         <v>85</v>
@@ -2479,49 +2418,44 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="34" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="34" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="34" customWidth="1"/>
     <col min="3" max="3" width="46" style="34" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="34" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="34" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="34" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="34" customWidth="1"/>
     <col min="7" max="7" width="45" style="34" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="34" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="34" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="34"/>
+    <col min="8" max="8" width="5.140625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="34" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="34" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
     </row>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="144" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="C2" s="145"/>
       <c r="D2" s="145"/>
@@ -2529,7 +2463,7 @@
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="147"/>
       <c r="C3" s="148"/>
       <c r="D3" s="148"/>
@@ -2537,7 +2471,7 @@
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="150"/>
       <c r="C4" s="151"/>
       <c r="D4" s="151"/>
@@ -2545,10 +2479,10 @@
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
     </row>
-    <row r="5" spans="2:11" ht="16" thickBot="1">
+    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="32"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="35"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -2559,7 +2493,7 @@
       <c r="I6" s="16"/>
       <c r="J6" s="36"/>
     </row>
-    <row r="7" spans="2:11" s="41" customFormat="1" ht="18">
+    <row r="7" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="111"/>
       <c r="C7" s="15" t="s">
         <v>32</v>
@@ -2580,7 +2514,7 @@
       </c>
       <c r="J7" s="118"/>
     </row>
-    <row r="8" spans="2:11" s="41" customFormat="1" ht="18">
+    <row r="8" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="20"/>
       <c r="C8" s="14"/>
       <c r="D8" s="28"/>
@@ -2591,10 +2525,10 @@
       <c r="I8" s="14"/>
       <c r="J8" s="42"/>
     </row>
-    <row r="9" spans="2:11" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="9" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="20"/>
       <c r="C9" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="14"/>
@@ -2604,10 +2538,10 @@
       <c r="I9" s="14"/>
       <c r="J9" s="42"/>
     </row>
-    <row r="10" spans="2:11" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="10" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="20"/>
       <c r="C10" s="132" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>5</v>
@@ -2624,7 +2558,7 @@
       </c>
       <c r="J10" s="42"/>
     </row>
-    <row r="11" spans="2:11" ht="16" thickBot="1">
+    <row r="11" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="37"/>
       <c r="C11" s="33" t="s">
         <v>34</v>
@@ -2644,7 +2578,7 @@
       <c r="J11" s="119"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="2:11" ht="16" thickBot="1">
+    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="37"/>
       <c r="C12" s="33" t="s">
         <v>35</v>
@@ -2664,7 +2598,7 @@
       <c r="J12" s="119"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="2:11" ht="16" thickBot="1">
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="37"/>
       <c r="C13" s="33" t="s">
         <v>37</v>
@@ -2684,7 +2618,7 @@
       <c r="J13" s="119"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="37"/>
       <c r="C14" s="33" t="s">
         <v>10</v>
@@ -2704,7 +2638,7 @@
       <c r="J14" s="119"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="37"/>
       <c r="C15" s="33" t="s">
         <v>40</v>
@@ -2724,7 +2658,7 @@
       <c r="J15" s="119"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="2:11" ht="16" thickBot="1">
+    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="37"/>
       <c r="C16" s="33" t="s">
         <v>41</v>
@@ -2744,7 +2678,7 @@
       <c r="J16" s="119"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="2:10" ht="16" thickBot="1">
+    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="37"/>
       <c r="C17" s="33" t="s">
         <v>42</v>
@@ -2766,7 +2700,7 @@
       </c>
       <c r="J17" s="119"/>
     </row>
-    <row r="18" spans="2:10" ht="16" thickBot="1">
+    <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="37"/>
       <c r="C18" s="33" t="s">
         <v>43</v>
@@ -2787,7 +2721,7 @@
       </c>
       <c r="J18" s="119"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="37"/>
       <c r="C19" s="81"/>
       <c r="D19" s="114"/>
@@ -2798,10 +2732,10 @@
       <c r="I19" s="32"/>
       <c r="J19" s="119"/>
     </row>
-    <row r="20" spans="2:10" ht="16" thickBot="1">
+    <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="37"/>
       <c r="C20" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D20" s="114"/>
       <c r="E20" s="115"/>
@@ -2811,7 +2745,7 @@
       <c r="I20" s="32"/>
       <c r="J20" s="119"/>
     </row>
-    <row r="21" spans="2:10" ht="16" thickBot="1">
+    <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="37"/>
       <c r="C21" s="33" t="s">
         <v>44</v>
@@ -2833,7 +2767,7 @@
       </c>
       <c r="J21" s="119"/>
     </row>
-    <row r="22" spans="2:10" ht="16" thickBot="1">
+    <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="37"/>
       <c r="C22" s="33" t="s">
         <v>45</v>
@@ -2854,7 +2788,7 @@
       </c>
       <c r="J22" s="119"/>
     </row>
-    <row r="23" spans="2:10" ht="16" thickBot="1">
+    <row r="23" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="37"/>
       <c r="C23" s="33" t="s">
         <v>12</v>
@@ -2875,7 +2809,7 @@
       </c>
       <c r="J23" s="119"/>
     </row>
-    <row r="24" spans="2:10" ht="16" thickBot="1">
+    <row r="24" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="37"/>
       <c r="C24" s="33" t="s">
         <v>46</v>
@@ -2896,7 +2830,7 @@
       </c>
       <c r="J24" s="119"/>
     </row>
-    <row r="25" spans="2:10" ht="16" thickBot="1">
+    <row r="25" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="37"/>
       <c r="C25" s="33" t="s">
         <v>47</v>
@@ -2918,7 +2852,7 @@
       </c>
       <c r="J25" s="119"/>
     </row>
-    <row r="26" spans="2:10" ht="16" thickBot="1">
+    <row r="26" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="37"/>
       <c r="C26" s="33" t="s">
         <v>48</v>
@@ -2940,7 +2874,7 @@
       </c>
       <c r="J26" s="119"/>
     </row>
-    <row r="27" spans="2:10" ht="16" thickBot="1">
+    <row r="27" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="37"/>
       <c r="C27" s="33" t="s">
         <v>49</v>
@@ -2961,7 +2895,7 @@
       </c>
       <c r="J27" s="119"/>
     </row>
-    <row r="28" spans="2:10" ht="16" thickBot="1">
+    <row r="28" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="37"/>
       <c r="C28" s="33" t="s">
         <v>52</v>
@@ -2982,7 +2916,7 @@
       </c>
       <c r="J28" s="119"/>
     </row>
-    <row r="29" spans="2:10" ht="16" thickBot="1">
+    <row r="29" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="37"/>
       <c r="C29" s="33" t="s">
         <v>39</v>
@@ -3001,7 +2935,7 @@
       </c>
       <c r="J29" s="119"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="37"/>
       <c r="C30" s="33"/>
       <c r="D30" s="19"/>
@@ -3012,7 +2946,7 @@
       <c r="I30" s="32"/>
       <c r="J30" s="119"/>
     </row>
-    <row r="31" spans="2:10" ht="16" thickBot="1">
+    <row r="31" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="37"/>
       <c r="C31" s="14" t="s">
         <v>8</v>
@@ -3025,7 +2959,7 @@
       <c r="I31" s="32"/>
       <c r="J31" s="119"/>
     </row>
-    <row r="32" spans="2:10" ht="16" thickBot="1">
+    <row r="32" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="37"/>
       <c r="C32" s="33" t="s">
         <v>38</v>
@@ -3047,7 +2981,7 @@
       </c>
       <c r="J32" s="119"/>
     </row>
-    <row r="33" spans="2:10" ht="16" thickBot="1">
+    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="37"/>
       <c r="C33" s="33" t="s">
         <v>50</v>
@@ -3069,7 +3003,7 @@
       </c>
       <c r="J33" s="119"/>
     </row>
-    <row r="34" spans="2:10" ht="16" thickBot="1">
+    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="37"/>
       <c r="C34" s="33" t="s">
         <v>51</v>
@@ -3091,7 +3025,7 @@
       </c>
       <c r="J34" s="119"/>
     </row>
-    <row r="35" spans="2:10" ht="16" thickBot="1">
+    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="37"/>
       <c r="C35" s="33" t="s">
         <v>36</v>
@@ -3110,7 +3044,7 @@
       </c>
       <c r="J35" s="119"/>
     </row>
-    <row r="36" spans="2:10" ht="16" thickBot="1">
+    <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="37"/>
       <c r="C36" s="45" t="s">
         <v>63</v>
@@ -3127,7 +3061,7 @@
       </c>
       <c r="J36" s="119"/>
     </row>
-    <row r="37" spans="2:10" ht="16" thickBot="1">
+    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="37"/>
       <c r="C37" s="45" t="s">
         <v>64</v>
@@ -3144,7 +3078,7 @@
       </c>
       <c r="J37" s="119"/>
     </row>
-    <row r="38" spans="2:10" ht="16" thickBot="1">
+    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="37"/>
       <c r="C38" s="45" t="s">
         <v>66</v>
@@ -3161,7 +3095,7 @@
       </c>
       <c r="J38" s="119"/>
     </row>
-    <row r="39" spans="2:10" ht="16" thickBot="1">
+    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="37"/>
       <c r="C39" s="45" t="s">
         <v>67</v>
@@ -3178,7 +3112,7 @@
       </c>
       <c r="J39" s="119"/>
     </row>
-    <row r="40" spans="2:10" ht="16" thickBot="1">
+    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="37"/>
       <c r="C40" s="45" t="s">
         <v>65</v>
@@ -3195,7 +3129,7 @@
       </c>
       <c r="J40" s="119"/>
     </row>
-    <row r="41" spans="2:10" ht="20" customHeight="1" thickBot="1">
+    <row r="41" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="38"/>
       <c r="C41" s="39"/>
       <c r="D41" s="39"/>
@@ -3212,43 +3146,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3263,24 +3160,23 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="62" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="62" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="62" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="62" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="62" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="62" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="62" customWidth="1"/>
-    <col min="8" max="8" width="4.75" style="62" customWidth="1"/>
-    <col min="9" max="9" width="8.375" style="63" customWidth="1"/>
-    <col min="10" max="10" width="3.25" style="63" customWidth="1"/>
-    <col min="11" max="11" width="68.625" style="62" customWidth="1"/>
-    <col min="12" max="16384" width="10.625" style="62"/>
+    <col min="1" max="2" width="3.42578125" style="62" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="62" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="62" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="62" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="62" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="62" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="62" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" style="63" customWidth="1"/>
+    <col min="10" max="10" width="3.28515625" style="63" customWidth="1"/>
+    <col min="11" max="11" width="68.5703125" style="62" customWidth="1"/>
+    <col min="12" max="16384" width="10.7109375" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1"/>
-    <row r="2" spans="2:11">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="64"/>
       <c r="C2" s="65"/>
       <c r="D2" s="65"/>
@@ -3292,10 +3188,10 @@
       <c r="J2" s="66"/>
       <c r="K2" s="65"/>
     </row>
-    <row r="3" spans="2:11" s="21" customFormat="1">
+    <row r="3" spans="2:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="20"/>
       <c r="C3" s="127" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -3309,10 +3205,10 @@
       <c r="I3" s="60"/>
       <c r="J3" s="59"/>
       <c r="K3" s="127" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="67"/>
       <c r="C4" s="68"/>
       <c r="D4" s="68"/>
@@ -3324,10 +3220,10 @@
       <c r="J4" s="124"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="2:11" ht="16" thickBot="1">
+    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="67"/>
       <c r="C5" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
@@ -3338,7 +3234,7 @@
       <c r="J5" s="10"/>
       <c r="K5" s="61"/>
     </row>
-    <row r="6" spans="2:11" ht="16" thickBot="1">
+    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="67"/>
       <c r="C6" s="70" t="s">
         <v>29</v>
@@ -3355,10 +3251,10 @@
       <c r="I6" s="69"/>
       <c r="J6" s="69"/>
       <c r="K6" s="142" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="16" thickBot="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="67"/>
       <c r="C7" s="70" t="s">
         <v>69</v>
@@ -3376,7 +3272,7 @@
       <c r="J7" s="74"/>
       <c r="K7" s="94"/>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="67"/>
       <c r="C8" s="80"/>
       <c r="D8" s="80"/>
@@ -3388,7 +3284,7 @@
       <c r="J8" s="78"/>
       <c r="K8" s="128"/>
     </row>
-    <row r="9" spans="2:11" ht="16" thickBot="1">
+    <row r="9" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="67"/>
       <c r="C9" s="29" t="s">
         <v>8</v>
@@ -3402,10 +3298,10 @@
       <c r="J9" s="12"/>
       <c r="K9" s="30"/>
     </row>
-    <row r="10" spans="2:11" ht="16" thickBot="1">
+    <row r="10" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="67"/>
       <c r="C10" s="129" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D10" s="76"/>
       <c r="E10" s="76"/>
@@ -3420,7 +3316,7 @@
       <c r="J10" s="78"/>
       <c r="K10" s="126"/>
     </row>
-    <row r="11" spans="2:11" ht="16" thickBot="1">
+    <row r="11" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="67"/>
       <c r="C11" s="82" t="s">
         <v>1</v>
@@ -3438,7 +3334,7 @@
       <c r="J11" s="79"/>
       <c r="K11" s="30"/>
     </row>
-    <row r="12" spans="2:11" ht="16" thickBot="1">
+    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="67"/>
       <c r="C12" s="84" t="s">
         <v>6</v>
@@ -3456,7 +3352,7 @@
       <c r="J12" s="79"/>
       <c r="K12" s="135"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="67"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
@@ -3468,10 +3364,10 @@
       <c r="J13" s="79"/>
       <c r="K13" s="61"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="67"/>
       <c r="C14" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -3482,10 +3378,10 @@
       <c r="J14" s="12"/>
       <c r="K14" s="61"/>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="67"/>
       <c r="C15" s="120" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -3501,7 +3397,7 @@
       <c r="J15" s="78"/>
       <c r="K15" s="61"/>
     </row>
-    <row r="16" spans="2:11" ht="16" thickBot="1">
+    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="67"/>
       <c r="C16" s="86" t="s">
         <v>9</v>
@@ -3509,7 +3405,7 @@
       <c r="D16" s="86"/>
       <c r="E16" s="86"/>
       <c r="F16" s="121" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G16" s="83">
         <v>650</v>
@@ -3519,10 +3415,10 @@
       <c r="J16" s="78"/>
       <c r="K16" s="140"/>
     </row>
-    <row r="17" spans="2:11" ht="16" thickBot="1">
+    <row r="17" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="67"/>
       <c r="C17" s="134" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
@@ -3538,15 +3434,15 @@
       <c r="J17" s="78"/>
       <c r="K17" s="61"/>
     </row>
-    <row r="18" spans="2:11" ht="16" thickBot="1">
+    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="67"/>
       <c r="C18" s="120" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
       <c r="F18" s="122" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G18" s="87">
         <v>6</v>
@@ -3556,10 +3452,10 @@
       <c r="J18" s="78"/>
       <c r="K18" s="137"/>
     </row>
-    <row r="19" spans="2:11" ht="16" thickBot="1">
+    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="67"/>
       <c r="C19" s="134" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D19" s="89"/>
       <c r="E19" s="89"/>
@@ -3575,15 +3471,15 @@
       <c r="J19" s="78"/>
       <c r="K19" s="137"/>
     </row>
-    <row r="20" spans="2:11" ht="16" thickBot="1">
+    <row r="20" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="67"/>
       <c r="C20" s="120" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D20" s="88"/>
       <c r="E20" s="88"/>
       <c r="F20" s="121" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G20" s="90">
         <v>2</v>
@@ -3593,10 +3489,10 @@
       <c r="J20" s="78"/>
       <c r="K20" s="30"/>
     </row>
-    <row r="21" spans="2:11" ht="16" thickBot="1">
+    <row r="21" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="67"/>
       <c r="C21" s="125" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21" s="61"/>
       <c r="E21" s="61"/>
@@ -3611,15 +3507,15 @@
       <c r="J21" s="75"/>
       <c r="K21" s="61"/>
     </row>
-    <row r="22" spans="2:11" ht="16" thickBot="1">
+    <row r="22" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="67"/>
       <c r="C22" s="136" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D22" s="61"/>
       <c r="E22" s="61"/>
       <c r="F22" s="125" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G22" s="91">
         <f>G21*G6</f>
@@ -3633,11 +3529,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3652,22 +3543,22 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="46" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="46" customWidth="1"/>
-    <col min="3" max="3" width="31.125" style="46" customWidth="1"/>
-    <col min="4" max="4" width="3.125" style="46" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="46" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="46" customWidth="1"/>
-    <col min="7" max="9" width="12.125" style="46" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="46" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="46" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" style="46" customWidth="1"/>
     <col min="10" max="10" width="13" style="47" customWidth="1"/>
-    <col min="11" max="11" width="38.625" style="46" customWidth="1"/>
-    <col min="12" max="16384" width="33.125" style="46"/>
+    <col min="11" max="11" width="38.5703125" style="46" customWidth="1"/>
+    <col min="12" max="16384" width="33.140625" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1"/>
-    <row r="2" spans="2:11">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="48"/>
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
@@ -3679,7 +3570,7 @@
       <c r="J2" s="50"/>
       <c r="K2" s="49"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="51"/>
       <c r="C3" s="52" t="s">
         <v>22</v>
@@ -3693,7 +3584,7 @@
       <c r="J3" s="53"/>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="51"/>
       <c r="C4" s="54"/>
       <c r="D4" s="54"/>
@@ -3705,7 +3596,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="56"/>
       <c r="C5" s="57" t="s">
         <v>30</v>
@@ -3721,13 +3612,13 @@
         <v>31</v>
       </c>
       <c r="H5" s="57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I5" s="57" t="s">
         <v>62</v>
       </c>
       <c r="J5" s="58" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K5" s="57" t="s">
         <v>16</v>
@@ -3736,10 +3627,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/energy/energy_power_engine_network_gas.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_power_engine_network_gas.central_producer.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCF96E4-263C-BF4D-938F-A51B994F313F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -35,10 +36,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -48,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="111">
   <si>
     <t>Source</t>
   </si>
@@ -492,18 +499,21 @@
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
   </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * #,##0.00\-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="31">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1281,7 +1291,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1541,6 +1551,7 @@
     <xf numFmtId="0" fontId="29" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="253">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1802,6 +1813,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2241,15 +2255,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="26" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="18" customWidth="1"/>
@@ -2257,24 +2271,24 @@
     <col min="4" max="16384" width="10.7109375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="24" customFormat="1">
       <c r="A1" s="22"/>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="25"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>18</v>
@@ -2283,7 +2297,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>70</v>
@@ -2292,7 +2306,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>20</v>
@@ -2301,29 +2315,29 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="96" t="s">
         <v>71</v>
       </c>
       <c r="C9" s="97"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="98"/>
       <c r="C10" s="99"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="98" t="s">
         <v>72</v>
@@ -2332,33 +2346,33 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="98"/>
       <c r="C12" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="98"/>
       <c r="C13" s="101" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="98"/>
       <c r="C14" s="99" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="98"/>
       <c r="C15" s="99"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="98" t="s">
         <v>77</v>
@@ -2367,49 +2381,49 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="98"/>
       <c r="C17" s="103" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="98"/>
       <c r="C18" s="104" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="98"/>
       <c r="C19" s="105" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="106"/>
       <c r="C20" s="107" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="106"/>
       <c r="C21" s="108" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="106"/>
       <c r="C22" s="109" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="B23" s="106"/>
       <c r="C23" s="110" t="s">
         <v>85</v>
@@ -2422,17 +2436,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="34" customWidth="1"/>
     <col min="2" max="2" width="3.7109375" style="34" customWidth="1"/>
@@ -2447,13 +2461,13 @@
     <col min="11" max="16384" width="10.7109375" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11">
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11">
       <c r="B2" s="144" t="s">
         <v>109</v>
       </c>
@@ -2463,7 +2477,7 @@
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11">
       <c r="B3" s="147"/>
       <c r="C3" s="148"/>
       <c r="D3" s="148"/>
@@ -2471,7 +2485,7 @@
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
     </row>
-    <row r="4" spans="2:11" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" ht="37" customHeight="1">
       <c r="B4" s="150"/>
       <c r="C4" s="151"/>
       <c r="D4" s="151"/>
@@ -2479,10 +2493,10 @@
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
     </row>
-    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="17" thickBot="1">
       <c r="D5" s="32"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11">
       <c r="B6" s="35"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -2493,7 +2507,7 @@
       <c r="I6" s="16"/>
       <c r="J6" s="36"/>
     </row>
-    <row r="7" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" s="41" customFormat="1" ht="19">
       <c r="B7" s="111"/>
       <c r="C7" s="15" t="s">
         <v>32</v>
@@ -2514,7 +2528,7 @@
       </c>
       <c r="J7" s="118"/>
     </row>
-    <row r="8" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" s="41" customFormat="1" ht="19">
       <c r="B8" s="20"/>
       <c r="C8" s="14"/>
       <c r="D8" s="28"/>
@@ -2525,7 +2539,7 @@
       <c r="I8" s="14"/>
       <c r="J8" s="42"/>
     </row>
-    <row r="9" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B9" s="20"/>
       <c r="C9" s="14" t="s">
         <v>105</v>
@@ -2538,7 +2552,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="42"/>
     </row>
-    <row r="10" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B10" s="20"/>
       <c r="C10" s="132" t="s">
         <v>100</v>
@@ -2558,7 +2572,7 @@
       </c>
       <c r="J10" s="42"/>
     </row>
-    <row r="11" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" ht="17" thickBot="1">
       <c r="B11" s="37"/>
       <c r="C11" s="33" t="s">
         <v>34</v>
@@ -2578,7 +2592,7 @@
       <c r="J11" s="119"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="17" thickBot="1">
       <c r="B12" s="37"/>
       <c r="C12" s="33" t="s">
         <v>35</v>
@@ -2598,7 +2612,7 @@
       <c r="J12" s="119"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="17" thickBot="1">
       <c r="B13" s="37"/>
       <c r="C13" s="33" t="s">
         <v>37</v>
@@ -2618,7 +2632,7 @@
       <c r="J13" s="119"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="17" thickBot="1">
       <c r="B14" s="37"/>
       <c r="C14" s="33" t="s">
         <v>10</v>
@@ -2638,7 +2652,7 @@
       <c r="J14" s="119"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="17" thickBot="1">
       <c r="B15" s="37"/>
       <c r="C15" s="33" t="s">
         <v>40</v>
@@ -2658,7 +2672,7 @@
       <c r="J15" s="119"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="17" thickBot="1">
       <c r="B16" s="37"/>
       <c r="C16" s="33" t="s">
         <v>41</v>
@@ -2678,7 +2692,7 @@
       <c r="J16" s="119"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" ht="17" thickBot="1">
       <c r="B17" s="37"/>
       <c r="C17" s="33" t="s">
         <v>42</v>
@@ -2700,7 +2714,7 @@
       </c>
       <c r="J17" s="119"/>
     </row>
-    <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" ht="17" thickBot="1">
       <c r="B18" s="37"/>
       <c r="C18" s="33" t="s">
         <v>43</v>
@@ -2721,7 +2735,7 @@
       </c>
       <c r="J18" s="119"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10">
       <c r="B19" s="37"/>
       <c r="C19" s="81"/>
       <c r="D19" s="114"/>
@@ -2732,7 +2746,7 @@
       <c r="I19" s="32"/>
       <c r="J19" s="119"/>
     </row>
-    <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" ht="17" thickBot="1">
       <c r="B20" s="37"/>
       <c r="C20" s="14" t="s">
         <v>86</v>
@@ -2745,7 +2759,7 @@
       <c r="I20" s="32"/>
       <c r="J20" s="119"/>
     </row>
-    <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" ht="17" thickBot="1">
       <c r="B21" s="37"/>
       <c r="C21" s="33" t="s">
         <v>44</v>
@@ -2767,7 +2781,7 @@
       </c>
       <c r="J21" s="119"/>
     </row>
-    <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" ht="17" thickBot="1">
       <c r="B22" s="37"/>
       <c r="C22" s="33" t="s">
         <v>45</v>
@@ -2788,7 +2802,7 @@
       </c>
       <c r="J22" s="119"/>
     </row>
-    <row r="23" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" ht="17" thickBot="1">
       <c r="B23" s="37"/>
       <c r="C23" s="33" t="s">
         <v>12</v>
@@ -2809,7 +2823,7 @@
       </c>
       <c r="J23" s="119"/>
     </row>
-    <row r="24" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" ht="17" thickBot="1">
       <c r="B24" s="37"/>
       <c r="C24" s="33" t="s">
         <v>46</v>
@@ -2830,7 +2844,7 @@
       </c>
       <c r="J24" s="119"/>
     </row>
-    <row r="25" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" ht="17" thickBot="1">
       <c r="B25" s="37"/>
       <c r="C25" s="33" t="s">
         <v>47</v>
@@ -2852,7 +2866,7 @@
       </c>
       <c r="J25" s="119"/>
     </row>
-    <row r="26" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" ht="17" thickBot="1">
       <c r="B26" s="37"/>
       <c r="C26" s="33" t="s">
         <v>48</v>
@@ -2874,7 +2888,7 @@
       </c>
       <c r="J26" s="119"/>
     </row>
-    <row r="27" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" ht="17" thickBot="1">
       <c r="B27" s="37"/>
       <c r="C27" s="33" t="s">
         <v>49</v>
@@ -2895,7 +2909,7 @@
       </c>
       <c r="J27" s="119"/>
     </row>
-    <row r="28" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" ht="17" thickBot="1">
       <c r="B28" s="37"/>
       <c r="C28" s="33" t="s">
         <v>52</v>
@@ -2904,19 +2918,19 @@
         <v>3</v>
       </c>
       <c r="E28" s="44">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="F28" s="33"/>
       <c r="G28" s="33" t="s">
         <v>23</v>
       </c>
       <c r="H28" s="33"/>
-      <c r="I28" s="31" t="s">
-        <v>55</v>
+      <c r="I28" s="153" t="s">
+        <v>110</v>
       </c>
       <c r="J28" s="119"/>
     </row>
-    <row r="29" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" ht="17" thickBot="1">
       <c r="B29" s="37"/>
       <c r="C29" s="33" t="s">
         <v>39</v>
@@ -2935,7 +2949,7 @@
       </c>
       <c r="J29" s="119"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10">
       <c r="B30" s="37"/>
       <c r="C30" s="33"/>
       <c r="D30" s="19"/>
@@ -2946,7 +2960,7 @@
       <c r="I30" s="32"/>
       <c r="J30" s="119"/>
     </row>
-    <row r="31" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" ht="17" thickBot="1">
       <c r="B31" s="37"/>
       <c r="C31" s="14" t="s">
         <v>8</v>
@@ -2959,7 +2973,7 @@
       <c r="I31" s="32"/>
       <c r="J31" s="119"/>
     </row>
-    <row r="32" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" ht="17" thickBot="1">
       <c r="B32" s="37"/>
       <c r="C32" s="33" t="s">
         <v>38</v>
@@ -2981,7 +2995,7 @@
       </c>
       <c r="J32" s="119"/>
     </row>
-    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" ht="17" thickBot="1">
       <c r="B33" s="37"/>
       <c r="C33" s="33" t="s">
         <v>50</v>
@@ -3003,7 +3017,7 @@
       </c>
       <c r="J33" s="119"/>
     </row>
-    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" ht="17" thickBot="1">
       <c r="B34" s="37"/>
       <c r="C34" s="33" t="s">
         <v>51</v>
@@ -3025,7 +3039,7 @@
       </c>
       <c r="J34" s="119"/>
     </row>
-    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" ht="17" thickBot="1">
       <c r="B35" s="37"/>
       <c r="C35" s="33" t="s">
         <v>36</v>
@@ -3044,7 +3058,7 @@
       </c>
       <c r="J35" s="119"/>
     </row>
-    <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" ht="17" thickBot="1">
       <c r="B36" s="37"/>
       <c r="C36" s="45" t="s">
         <v>63</v>
@@ -3061,7 +3075,7 @@
       </c>
       <c r="J36" s="119"/>
     </row>
-    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" ht="17" thickBot="1">
       <c r="B37" s="37"/>
       <c r="C37" s="45" t="s">
         <v>64</v>
@@ -3078,7 +3092,7 @@
       </c>
       <c r="J37" s="119"/>
     </row>
-    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" ht="17" thickBot="1">
       <c r="B38" s="37"/>
       <c r="C38" s="45" t="s">
         <v>66</v>
@@ -3095,7 +3109,7 @@
       </c>
       <c r="J38" s="119"/>
     </row>
-    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" ht="17" thickBot="1">
       <c r="B39" s="37"/>
       <c r="C39" s="45" t="s">
         <v>67</v>
@@ -3112,7 +3126,7 @@
       </c>
       <c r="J39" s="119"/>
     </row>
-    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" ht="17" thickBot="1">
       <c r="B40" s="37"/>
       <c r="C40" s="45" t="s">
         <v>65</v>
@@ -3129,7 +3143,7 @@
       </c>
       <c r="J40" s="119"/>
     </row>
-    <row r="41" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" ht="20" customHeight="1" thickBot="1">
       <c r="B41" s="38"/>
       <c r="C41" s="39"/>
       <c r="D41" s="39"/>
@@ -3150,8 +3164,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B1:K22"/>
@@ -3160,7 +3174,7 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="3.42578125" style="62" customWidth="1"/>
     <col min="3" max="3" width="35.85546875" style="62" customWidth="1"/>
@@ -3175,8 +3189,8 @@
     <col min="12" max="16384" width="10.7109375" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" ht="17" thickBot="1"/>
+    <row r="2" spans="2:11">
       <c r="B2" s="64"/>
       <c r="C2" s="65"/>
       <c r="D2" s="65"/>
@@ -3188,7 +3202,7 @@
       <c r="J2" s="66"/>
       <c r="K2" s="65"/>
     </row>
-    <row r="3" spans="2:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" s="21" customFormat="1">
       <c r="B3" s="20"/>
       <c r="C3" s="127" t="s">
         <v>88</v>
@@ -3208,7 +3222,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11">
       <c r="B4" s="67"/>
       <c r="C4" s="68"/>
       <c r="D4" s="68"/>
@@ -3220,7 +3234,7 @@
       <c r="J4" s="124"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="17" thickBot="1">
       <c r="B5" s="67"/>
       <c r="C5" s="29" t="s">
         <v>87</v>
@@ -3234,7 +3248,7 @@
       <c r="J5" s="10"/>
       <c r="K5" s="61"/>
     </row>
-    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="17" thickBot="1">
       <c r="B6" s="67"/>
       <c r="C6" s="70" t="s">
         <v>29</v>
@@ -3254,7 +3268,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="17" thickBot="1">
       <c r="B7" s="67"/>
       <c r="C7" s="70" t="s">
         <v>69</v>
@@ -3272,7 +3286,7 @@
       <c r="J7" s="74"/>
       <c r="K7" s="94"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11">
       <c r="B8" s="67"/>
       <c r="C8" s="80"/>
       <c r="D8" s="80"/>
@@ -3284,7 +3298,7 @@
       <c r="J8" s="78"/>
       <c r="K8" s="128"/>
     </row>
-    <row r="9" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="17" thickBot="1">
       <c r="B9" s="67"/>
       <c r="C9" s="29" t="s">
         <v>8</v>
@@ -3298,7 +3312,7 @@
       <c r="J9" s="12"/>
       <c r="K9" s="30"/>
     </row>
-    <row r="10" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="17" thickBot="1">
       <c r="B10" s="67"/>
       <c r="C10" s="129" t="s">
         <v>99</v>
@@ -3316,7 +3330,7 @@
       <c r="J10" s="78"/>
       <c r="K10" s="126"/>
     </row>
-    <row r="11" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" ht="17" thickBot="1">
       <c r="B11" s="67"/>
       <c r="C11" s="82" t="s">
         <v>1</v>
@@ -3334,7 +3348,7 @@
       <c r="J11" s="79"/>
       <c r="K11" s="30"/>
     </row>
-    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="17" thickBot="1">
       <c r="B12" s="67"/>
       <c r="C12" s="84" t="s">
         <v>6</v>
@@ -3352,7 +3366,7 @@
       <c r="J12" s="79"/>
       <c r="K12" s="135"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11">
       <c r="B13" s="67"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
@@ -3364,7 +3378,7 @@
       <c r="J13" s="79"/>
       <c r="K13" s="61"/>
     </row>
-    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="17" thickBot="1">
       <c r="B14" s="67"/>
       <c r="C14" s="13" t="s">
         <v>92</v>
@@ -3378,7 +3392,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="61"/>
     </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="17" thickBot="1">
       <c r="B15" s="67"/>
       <c r="C15" s="120" t="s">
         <v>93</v>
@@ -3397,7 +3411,7 @@
       <c r="J15" s="78"/>
       <c r="K15" s="61"/>
     </row>
-    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="17" thickBot="1">
       <c r="B16" s="67"/>
       <c r="C16" s="86" t="s">
         <v>9</v>
@@ -3415,7 +3429,7 @@
       <c r="J16" s="78"/>
       <c r="K16" s="140"/>
     </row>
-    <row r="17" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="17" thickBot="1">
       <c r="B17" s="67"/>
       <c r="C17" s="134" t="s">
         <v>94</v>
@@ -3434,7 +3448,7 @@
       <c r="J17" s="78"/>
       <c r="K17" s="61"/>
     </row>
-    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="17" thickBot="1">
       <c r="B18" s="67"/>
       <c r="C18" s="120" t="s">
         <v>95</v>
@@ -3452,7 +3466,7 @@
       <c r="J18" s="78"/>
       <c r="K18" s="137"/>
     </row>
-    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="17" thickBot="1">
       <c r="B19" s="67"/>
       <c r="C19" s="134" t="s">
         <v>96</v>
@@ -3471,7 +3485,7 @@
       <c r="J19" s="78"/>
       <c r="K19" s="137"/>
     </row>
-    <row r="20" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" ht="17" thickBot="1">
       <c r="B20" s="67"/>
       <c r="C20" s="120" t="s">
         <v>96</v>
@@ -3489,7 +3503,7 @@
       <c r="J20" s="78"/>
       <c r="K20" s="30"/>
     </row>
-    <row r="21" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" ht="17" thickBot="1">
       <c r="B21" s="67"/>
       <c r="C21" s="125" t="s">
         <v>97</v>
@@ -3507,7 +3521,7 @@
       <c r="J21" s="75"/>
       <c r="K21" s="61"/>
     </row>
-    <row r="22" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" ht="17" thickBot="1">
       <c r="B22" s="67"/>
       <c r="C22" s="136" t="s">
         <v>101</v>
@@ -3533,8 +3547,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:K5"/>
@@ -3543,7 +3557,7 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="46" customWidth="1"/>
     <col min="2" max="2" width="3.42578125" style="46" customWidth="1"/>
@@ -3557,8 +3571,8 @@
     <col min="12" max="16384" width="33.140625" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" ht="17" thickBot="1"/>
+    <row r="2" spans="2:11">
       <c r="B2" s="48"/>
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
@@ -3570,7 +3584,7 @@
       <c r="J2" s="50"/>
       <c r="K2" s="49"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11">
       <c r="B3" s="51"/>
       <c r="C3" s="52" t="s">
         <v>22</v>
@@ -3584,7 +3598,7 @@
       <c r="J3" s="53"/>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11">
       <c r="B4" s="51"/>
       <c r="C4" s="54"/>
       <c r="D4" s="54"/>
@@ -3596,7 +3610,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11">
       <c r="B5" s="56"/>
       <c r="C5" s="57" t="s">
         <v>30</v>
